--- a/01_Input/00_CO Validation/Turkey - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Turkey - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/UNDP/Energy/CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="268" documentId="13_ncr:1_{0EFF3E03-FAB0-5547-AB89-E48C983D93AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{434C0190-9B7C-40D5-BABF-14F95CF72F79}"/>
+  <xr:revisionPtr revIDLastSave="272" documentId="13_ncr:1_{0EFF3E03-FAB0-5547-AB89-E48C983D93AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BE7B853-1C24-420E-9AAF-2BF61BBE685C}"/>
   <bookViews>
     <workbookView xWindow="7500" yWindow="740" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="104">
   <si>
     <t>Project ID</t>
   </si>
@@ -147,7 +150,7 @@
     <t>http://open.undp.org/projects/00125243</t>
   </si>
   <si>
-    <t>Capacity Training</t>
+    <t>Entrepreneurship Training</t>
   </si>
   <si>
     <t>Number of trainees trained at the vocational training center(s) supported(at least 25 % are women)</t>
@@ -226,7 +229,7 @@
     <t>PIMS+</t>
   </si>
   <si>
-    <t>Other Energy Services</t>
+    <t>GHG Emissions Reduction</t>
   </si>
   <si>
     <t>tCO2</t>
@@ -361,6 +364,12 @@
     <t>to the CO: Please estimate number of beneficiaries.</t>
   </si>
   <si>
+    <t>Capacity Training</t>
+  </si>
+  <si>
+    <t>Other Energy Services</t>
+  </si>
+  <si>
     <t># of pilot projects at farm and enterprise levels on resource efficiency in agriculture and agro-industries</t>
   </si>
   <si>
@@ -471,9 +480,6 @@
   </si>
   <si>
     <t>Individuals who participate in trainings for energy activities</t>
-  </si>
-  <si>
-    <t>Entrepreneurship Training</t>
   </si>
   <si>
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
@@ -676,18 +682,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -714,6 +708,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1022,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7FC47B-9AC6-462B-BC07-1DA627AEFE8D}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1047,401 +1053,401 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30.75">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="13" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="7"/>
     </row>
     <row r="2" spans="1:20" ht="91.5">
-      <c r="A2" s="18">
+      <c r="A2" s="14">
         <v>96620</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="14">
         <v>1499060</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="16">
         <v>0</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="16">
         <v>300</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="18" t="s">
+      <c r="K2" s="17"/>
+      <c r="L2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
     </row>
     <row r="3" spans="1:20" ht="180.75" customHeight="1">
-      <c r="A3" s="18">
+      <c r="A3" s="14">
         <v>114367</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="14">
         <v>791900</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18" t="s">
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18" t="s">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="212.25" customHeight="1">
-      <c r="A4" s="18">
+      <c r="A4" s="14">
         <v>125243</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="14">
         <v>2362663</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="16">
         <v>0</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="16">
         <v>1600</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="19">
         <v>0.25</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18" t="s">
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
     </row>
     <row r="5" spans="1:20" ht="130.5" customHeight="1">
-      <c r="A5" s="18">
+      <c r="A5" s="14">
         <v>133485</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="14">
         <v>170000</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20" t="s">
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="19">
         <v>0.5</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18" t="s">
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18" t="s">
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="S5" s="18" t="s">
+      <c r="S5" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="211.5" customHeight="1">
-      <c r="A6" s="18">
+      <c r="A6" s="14">
         <v>5673</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="14">
         <v>3800000</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="16">
         <v>0</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="16">
         <v>311205</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18" t="s">
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
     </row>
     <row r="7" spans="1:20" ht="178.5" customHeight="1">
-      <c r="A7" s="18">
+      <c r="A7" s="14">
         <v>5323</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="14">
         <v>3780000</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="16">
         <v>0</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="16">
         <v>3487</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18" t="s">
+      <c r="K7" s="14"/>
+      <c r="L7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18" t="s">
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="18" t="s">
+      <c r="P7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
     </row>
     <row r="8" spans="1:20" ht="192" customHeight="1">
-      <c r="A8" s="18">
+      <c r="A8" s="14">
         <v>5285</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="14">
         <v>3750000</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="16">
         <v>0</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="16">
         <v>5000</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18" t="s">
+      <c r="K8" s="14"/>
+      <c r="L8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="24" t="s">
+      <c r="M8" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18" t="s">
+      <c r="N8" s="14"/>
+      <c r="O8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -1663,7 +1669,7 @@
         <v>2362663</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>37</v>
@@ -1755,7 +1761,7 @@
         <v>3800000</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>52</v>
@@ -1980,7 +1986,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1995,7 +2001,7 @@
         <v>23</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="231" customHeight="1">
@@ -2018,10 +2024,10 @@
         <v>30</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>31</v>
@@ -2044,7 +2050,7 @@
         <v>2362663</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>37</v>
@@ -2076,7 +2082,7 @@
         <v>170000</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>43</v>
@@ -2085,7 +2091,7 @@
         <v>44</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>45</v>
@@ -2108,10 +2114,10 @@
         <v>3800000</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2143,7 +2149,7 @@
         <v>57</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -2226,160 +2232,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="12" t="s">
-        <v>73</v>
+      <c r="A2" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="21"/>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="21"/>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13" t="s">
-        <v>79</v>
+      <c r="A5" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="22"/>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="13"/>
+      <c r="A7" s="22"/>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="13"/>
+      <c r="A8" s="22"/>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="13"/>
+      <c r="A9" s="22"/>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="14" t="s">
-        <v>89</v>
+      <c r="A10" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="23"/>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="15" t="s">
-        <v>93</v>
+      <c r="A12" s="24" t="s">
+        <v>95</v>
       </c>
       <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="24"/>
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="15"/>
-      <c r="B13" t="s">
-        <v>95</v>
-      </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="24"/>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2394,17 +2400,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2653,6 +2648,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2663,11 +2669,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D95151FA-9580-4149-A82E-5CCA90355502}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2021D64-63CF-41B0-AAED-0CD8BAFB5D20}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2021D64-63CF-41B0-AAED-0CD8BAFB5D20}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D95151FA-9580-4149-A82E-5CCA90355502}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/01_Input/00_CO Validation/Turkey - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Turkey - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/UNDP/Energy/CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="272" documentId="13_ncr:1_{0EFF3E03-FAB0-5547-AB89-E48C983D93AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BE7B853-1C24-420E-9AAF-2BF61BBE685C}"/>
+  <xr:revisionPtr revIDLastSave="305" documentId="13_ncr:1_{0EFF3E03-FAB0-5547-AB89-E48C983D93AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAA81A35-2EC1-4946-BF43-BA369B9FE81B}"/>
   <bookViews>
     <workbookView xWindow="7500" yWindow="740" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="117">
   <si>
     <t>Project ID</t>
   </si>
@@ -74,10 +74,7 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Comments</t>
+    <t>VF or Non-VF</t>
   </si>
   <si>
     <t>Tag</t>
@@ -96,6 +93,15 @@
   </si>
   <si>
     <t>Indirect Taxonomy</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
   </si>
   <si>
     <t>Resource Efficiency in Agriculture &amp; Agrobased Ind.GAP</t>
@@ -129,9 +135,6 @@
     <t>http://open.undp.org/projects/00114367</t>
   </si>
   <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
     <t>Mapping of legislative requirements in place</t>
   </si>
   <si>
@@ -142,6 +145,12 @@
   </si>
   <si>
     <t>Legal Framework</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Tier 1</t>
   </si>
   <si>
     <t>Increasing Employability in the Renewable Energy Sector</t>
@@ -205,6 +214,9 @@
     <t>http://open.undp.org/projects/00133485</t>
   </si>
   <si>
+    <t>Small Enterprises</t>
+  </si>
+  <si>
     <t>Number of tourism actors that integrated at least one energy efficiency application and/or use of renewable energy resources.</t>
   </si>
   <si>
@@ -215,6 +227,9 @@
   </si>
   <si>
     <t>Enerjisa</t>
+  </si>
+  <si>
+    <t>Tier 2</t>
   </si>
   <si>
     <t>Incentives and Support</t>
@@ -320,6 +335,9 @@
     </r>
   </si>
   <si>
+    <t>Solar</t>
+  </si>
+  <si>
     <t>TEEEM - EE Motors</t>
   </si>
   <si>
@@ -364,6 +382,12 @@
     <t>to the CO: Please estimate number of beneficiaries.</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
     <t>Capacity Training</t>
   </si>
   <si>
@@ -410,91 +434,106 @@
     <t>Cumulative installed capacity of grid-connected PV systems (kWp)</t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
   </si>
   <si>
     <t>Energy (MW added)</t>
   </si>
   <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
+    <t>Number of MW installed capacity</t>
   </si>
   <si>
     <t>Clean Cooking</t>
   </si>
   <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
   </si>
   <si>
     <t>Health Services</t>
   </si>
   <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Support for the development of medium enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Small Enterprises</t>
-  </si>
-  <si>
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -507,12 +546,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,8 +605,21 @@
       <name val="Helvetica Neue"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,44 +632,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -649,77 +671,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1026,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7FC47B-9AC6-462B-BC07-1DA627AEFE8D}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1044,427 +1135,578 @@
     <col min="9" max="9" width="59.28515625" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" customWidth="1"/>
     <col min="11" max="11" width="18.28515625" customWidth="1"/>
-    <col min="12" max="12" width="9.140625"/>
-    <col min="13" max="13" width="40" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30.75">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:32" ht="30.75">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7"/>
-    </row>
-    <row r="2" spans="1:20" ht="91.5">
-      <c r="A2" s="14">
+      <c r="T1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="91.5">
+      <c r="A2" s="12">
         <v>96620</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1499060</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
+        <v>300</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="19"/>
+      <c r="N2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="28"/>
+      <c r="X2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+    </row>
+    <row r="3" spans="1:32" ht="180.75" customHeight="1">
+      <c r="A3" s="12">
+        <v>114367</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12">
+        <v>791900</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="14">
-        <v>1499060</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="16">
+      <c r="F3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="19"/>
+      <c r="N3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="28"/>
+      <c r="T3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="28"/>
+      <c r="X3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="212.25" customHeight="1">
+      <c r="A4" s="12">
+        <v>125243</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="12">
+        <v>2362663</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="14">
         <v>0</v>
       </c>
-      <c r="H2" s="16">
-        <v>300</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="16" t="s">
+      <c r="H4" s="14">
+        <v>1600</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="19"/>
+      <c r="N4" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="28"/>
+      <c r="X4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+    </row>
+    <row r="5" spans="1:32" ht="130.5" customHeight="1">
+      <c r="A5" s="12">
+        <v>133485</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="12">
+        <v>170000</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="14">
+        <v>8</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="28"/>
+      <c r="X5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC5" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF5" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="211.5" customHeight="1">
+      <c r="A6" s="12">
+        <v>5673</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3800000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>311205</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="19"/>
+      <c r="N6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="28"/>
+      <c r="X6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+    </row>
+    <row r="7" spans="1:32" ht="178.5" customHeight="1">
+      <c r="A7" s="12">
+        <v>5323</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="12">
+        <v>3780000</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>3487</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" s="19"/>
+      <c r="U7" s="28"/>
+      <c r="X7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+    </row>
+    <row r="8" spans="1:32" ht="192" customHeight="1">
+      <c r="A8" s="12">
+        <v>5285</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="12">
+        <v>3750000</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-    </row>
-    <row r="3" spans="1:20" ht="180.75" customHeight="1">
-      <c r="A3" s="14">
-        <v>114367</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="F8" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>5000</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="28"/>
+      <c r="X8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y8" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="14">
-        <v>791900</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="212.25" customHeight="1">
-      <c r="A4" s="14">
-        <v>125243</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="14">
-        <v>2362663</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="16">
-        <v>0</v>
-      </c>
-      <c r="H4" s="16">
-        <v>1600</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-    </row>
-    <row r="5" spans="1:20" ht="130.5" customHeight="1">
-      <c r="A5" s="14">
-        <v>133485</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="14">
-        <v>170000</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="211.5" customHeight="1">
-      <c r="A6" s="14">
-        <v>5673</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="14">
-        <v>3800000</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="16">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16">
-        <v>311205</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-    </row>
-    <row r="7" spans="1:20" ht="178.5" customHeight="1">
-      <c r="A7" s="14">
-        <v>5323</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="14">
-        <v>3780000</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
-        <v>3487</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-    </row>
-    <row r="8" spans="1:20" ht="192" customHeight="1">
-      <c r="A8" s="14">
-        <v>5285</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="14">
-        <v>3750000</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16">
-        <v>5000</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S8" xr:uid="{AAACC25B-A949-4DDD-8867-9532C127C28E}">
+  <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF8" xr:uid="{AAACC25B-A949-4DDD-8867-9532C127C28E}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R8" xr:uid="{05155D34-D30F-4103-AD8C-EC4F7E59FEF3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE8 Q2:Q8" xr:uid="{05155D34-D30F-4103-AD8C-EC4F7E59FEF3}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q8" xr:uid="{9A02947A-07E4-4B49-BEFB-D5566767A8A4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD8 P2:P8" xr:uid="{9A02947A-07E4-4B49-BEFB-D5566767A8A4}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P8" xr:uid="{D24118CD-5D98-4EE3-BF1A-1BEB7F719DE3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB8" xr:uid="{D24118CD-5D98-4EE3-BF1A-1BEB7F719DE3}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8" xr:uid="{076AD55B-6EA8-423E-A600-4923F76B33E3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA8 N2:N8" xr:uid="{076AD55B-6EA8-423E-A600-4923F76B33E3}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC8" xr:uid="{9555CC12-21E5-4C0A-8153-A2205FEC65BB}">
+      <formula1>"Tier 1, Tier 2, Tier 3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8" xr:uid="{C30F9077-9B12-48C6-B450-BBAB32EC3044}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M8" xr:uid="{25366306-132E-4CD6-892B-74ED5302AF55}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T8" xr:uid="{6FAFD493-5BFA-4997-B379-34B1AA63DE66}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L8" xr:uid="{26364F1C-E76B-4723-9EE2-8361ED65D552}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R8" xr:uid="{ABABE75B-D97C-4A29-8415-F3F867F831D6}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S8" xr:uid="{67934836-BF33-439A-86C6-63226ADD98C9}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1476,12 +1718,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4095BA4-885E-4932-AB11-7C8DA350D7B2}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E13</xm:sqref>
+          <xm:sqref>E9:E13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D64998FB-B8EF-4CA8-8729-BE53A7F83E14}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1543,51 +1791,51 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7" t="s">
+      <c r="L1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="7"/>
+      <c r="T1" s="5"/>
     </row>
     <row r="2" spans="1:20" ht="91.5">
       <c r="A2">
         <v>96620</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>1499060</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1595,21 +1843,21 @@
       <c r="H2" s="3">
         <v>300</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="8"/>
+      <c r="I2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="6"/>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="231" customHeight="1">
@@ -1617,42 +1865,42 @@
         <v>114367</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>791900</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="241.5" customHeight="1">
@@ -1660,19 +1908,19 @@
         <v>125243</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>2362663</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>37</v>
+        <v>72</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1680,23 +1928,23 @@
       <c r="H4" s="3">
         <v>1600</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="10">
+      <c r="I4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="8">
         <v>0.25</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="289.5" customHeight="1">
@@ -1704,47 +1952,47 @@
         <v>133485</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>170000</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" t="s">
-        <v>40</v>
-      </c>
       <c r="R5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="229.5">
@@ -1752,40 +2000,40 @@
         <v>5673</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>3800000</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="6">
+        <v>73</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <v>311205</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>54</v>
+      <c r="I6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="178.5" customHeight="1">
@@ -1793,19 +2041,19 @@
         <v>5323</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>3780000</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -1813,20 +2061,20 @@
       <c r="H7" s="3">
         <v>3487</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="L7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="210" customHeight="1">
@@ -1834,19 +2082,19 @@
         <v>5285</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>3750000</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>61</v>
+        <v>23</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -1854,23 +2102,23 @@
       <c r="H8" s="3">
         <v>5000</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>54</v>
+      <c r="I8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="O8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1903,7 +2151,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A64EAE38-84EC-4F5F-BE42-F964F4CD03BF}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E13</xm:sqref>
         </x14:dataValidation>
@@ -1965,8 +2213,8 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>12</v>
+      <c r="K1" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="238.5" customHeight="1">
@@ -1974,19 +2222,19 @@
         <v>96620</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>1499060</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>66</v>
+        <v>23</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1994,14 +2242,14 @@
       <c r="H2" s="3">
         <v>300</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>67</v>
+      <c r="I2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="231" customHeight="1">
@@ -2009,31 +2257,31 @@
         <v>114367</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>791900</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="G3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>32</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="241.5" customHeight="1">
@@ -2041,19 +2289,19 @@
         <v>125243</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>2362663</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>37</v>
+        <v>72</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -2061,11 +2309,11 @@
       <c r="H4" s="3">
         <v>1600</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>39</v>
+      <c r="I4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="289.5" customHeight="1">
@@ -2073,31 +2321,31 @@
         <v>133485</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>170000</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>46</v>
+        <v>73</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="229.5">
@@ -2105,31 +2353,31 @@
         <v>5673</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>3800000</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="6">
+        <v>73</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <v>1433</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>54</v>
+      <c r="I6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="178.5" customHeight="1">
@@ -2137,19 +2385,19 @@
         <v>5323</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>3780000</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -2157,11 +2405,11 @@
       <c r="H7" s="3">
         <v>4863</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="210" customHeight="1">
@@ -2169,19 +2417,19 @@
         <v>5285</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>3750000</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>61</v>
+        <v>23</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -2189,11 +2437,11 @@
       <c r="H8" s="3">
         <v>5000</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>54</v>
+      <c r="I8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2209,7 +2457,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E13</xm:sqref>
         </x14:dataValidation>
@@ -2221,180 +2469,194 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="52.7109375" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="21"/>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="21"/>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="22"/>
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="22"/>
-      <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="22"/>
-      <c r="B8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="22"/>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="23"/>
-      <c r="B11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="24"/>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="24"/>
-      <c r="B14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5" t="s">
+      <c r="B13" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="29" t="s">
         <v>103</v>
       </c>
+      <c r="B14" s="30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2649,6 +2911,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
@@ -2659,23 +2930,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2021D64-63CF-41B0-AAED-0CD8BAFB5D20}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D95151FA-9580-4149-A82E-5CCA90355502}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF0F2F1F-F7E8-4442-9517-DECF66C4186C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF0F2F1F-F7E8-4442-9517-DECF66C4186C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D95151FA-9580-4149-A82E-5CCA90355502}"/>
 </file>